--- a/LabelMaker Plans.xlsx
+++ b/LabelMaker Plans.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
